--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2815.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2815.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173049943216515</v>
+        <v>0.8951720595359802</v>
       </c>
       <c r="B1">
-        <v>2.441138956811081</v>
+        <v>1.769679069519043</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.225603103637695</v>
       </c>
       <c r="D1">
-        <v>2.364978387273415</v>
+        <v>3.523576498031616</v>
       </c>
       <c r="E1">
-        <v>1.232373966044948</v>
+        <v>1.23878002166748</v>
       </c>
     </row>
   </sheetData>
